--- a/public/template/agents.xlsx
+++ b/public/template/agents.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4854">
   <si>
     <t>Matricule</t>
   </si>
@@ -14556,6 +14556,27 @@
   </si>
   <si>
     <t>ZOUTOUZOU EUPHRASIE</t>
+  </si>
+  <si>
+    <t>dhfhdfj</t>
+  </si>
+  <si>
+    <t>djfhjdhfj</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Professeurs titulaires</t>
+  </si>
+  <si>
+    <t>Préfecture de Alibori</t>
+  </si>
+  <si>
+    <t>kjdkfjkh</t>
+  </si>
+  <si>
+    <t>shjdhfjdhfj</t>
   </si>
 </sst>
 </file>
@@ -14563,9 +14584,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -14588,8 +14618,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -14891,40 +14924,40 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I3344"/>
+  <dimension ref="A1:I3346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -105186,6 +105219,60 @@
         <v>14</v>
       </c>
       <c r="I3344"/>
+    </row>
+    <row r="3345" spans="1:9">
+      <c r="A3345">
+        <v>78947474856</v>
+      </c>
+      <c r="B3345" t="s">
+        <v>4847</v>
+      </c>
+      <c r="C3345" t="s">
+        <v>4848</v>
+      </c>
+      <c r="D3345" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3345" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3345" t="s">
+        <v>4849</v>
+      </c>
+      <c r="G3345" t="s">
+        <v>4850</v>
+      </c>
+      <c r="H3345" t="s">
+        <v>4851</v>
+      </c>
+      <c r="I3345"/>
+    </row>
+    <row r="3346" spans="1:9">
+      <c r="A3346">
+        <v>94949494949</v>
+      </c>
+      <c r="B3346" t="s">
+        <v>4852</v>
+      </c>
+      <c r="C3346" t="s">
+        <v>4853</v>
+      </c>
+      <c r="D3346" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3346" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3346" t="s">
+        <v>4849</v>
+      </c>
+      <c r="G3346" t="s">
+        <v>4850</v>
+      </c>
+      <c r="H3346" t="s">
+        <v>4851</v>
+      </c>
+      <c r="I3346"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
